--- a/notes/SECTOR_MASTER.xlsx
+++ b/notes/SECTOR_MASTER.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4031856F-C1FC-4533-880E-B27446AB0BD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{37625697-FFE4-4D57-AA64-0CABE56153FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DF21BA-5917-46C4-B8A7-07DB04F0F81C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +417,7 @@
     <col min="5" max="5" width="100.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -431,7 +431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -444,12 +444,8 @@
       <c r="D2">
         <v>5</v>
       </c>
-      <c r="E2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('",B2,"',",C2,",",D2,")")</f>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('SERVICES',21,5)</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,12 +458,8 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E19" si="0">_xlfn.CONCAT("INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('",B3,"',",C3,",",D3,")")</f>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('IT',20,5)</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,12 +472,8 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('INDUSTRIAL MANUFACTURING',45,3)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -498,12 +486,8 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('CEMENT &amp; CEMENT PRODUCTS',30,3)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -516,12 +500,8 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('METALS',17,3)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -534,12 +514,8 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('FINANCIAL SERVICES',10,2)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -552,12 +528,8 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('CHEMICALS',9,3)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -570,12 +542,8 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('ENERGY',11,3)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -588,12 +556,8 @@
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('CONSUMER GOODS',30,3)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -606,12 +570,8 @@
       <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('PHARMA',28,5)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -624,12 +584,8 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('AUTOMOBILE',25,3)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -642,12 +598,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('HEALTHCARE SERVICES',40,3)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -660,12 +612,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('CONSTRUCTION',20,2)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -678,12 +626,8 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('TELECOM',21,3)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -696,12 +640,8 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('TEXTILES',28,3)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -714,12 +654,8 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('FERTILISERS &amp; PESTICIDES',11,3)</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -732,12 +668,8 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('MEDIA &amp; ENTERTAINMENT',11,2)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -749,10 +681,6 @@
       </c>
       <c r="D19">
         <v>3</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO SECTORS(SECTOR_NAME, SECTOR_PE, SECTOR_PB) VALUES ('PAPER',13,3)</v>
       </c>
     </row>
   </sheetData>
